--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_AV-MCPS_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_AV-MCPS_General.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>1.070183749104134</v>
+        <v>1.866885788167447</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>1.329647778123854</v>
+        <v>1.380402344219233</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>1.187061053241883</v>
+        <v>1.695747575946762</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>1.137502484051251</v>
+        <v>1.514704241553418</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>1.243186337533633</v>
+        <v>1.367040328565438</v>
       </c>
     </row>
   </sheetData>
